--- a/published-data/reports-2020-05-06/reports-echeances-departemental-naf-latest.xlsx
+++ b/published-data/reports-2020-05-06/reports-echeances-departemental-naf-latest.xlsx
@@ -43,7 +43,7 @@
     <t>libelle_section</t>
   </si>
   <si>
-    <t>Reports d échéances fiscales</t>
+    <t>Reports d'échéances fiscales</t>
   </si>
   <si>
     <t>84</t>
